--- a/数据表/Trademoney.xlsx
+++ b/数据表/Trademoney.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="t_trademoney" sheetId="1" r:id="rId1"/>
@@ -30,18 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t>//注释,货币id</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>货币名称</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -55,6 +43,18 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>//注释,货币id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>货币名称</t>
+  </si>
+  <si>
+    <t>图标</t>
   </si>
   <si>
     <t>经验</t>
@@ -686,11 +686,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1018,41 +1018,41 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" ht="27" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4">
@@ -1072,7 +1072,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5">
@@ -1106,37 +1106,37 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
